--- a/PM演習_設計書_吉田.xlsx
+++ b/PM演習_設計書_吉田.xlsx
@@ -5,29 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="画面１" sheetId="1" r:id="rId1"/>
-    <sheet name="3" sheetId="10" r:id="rId2"/>
-    <sheet name="6" sheetId="11" r:id="rId3"/>
+    <sheet name="1" sheetId="13" r:id="rId2"/>
+    <sheet name="2" sheetId="14" r:id="rId3"/>
+    <sheet name="3" sheetId="10" r:id="rId4"/>
+    <sheet name="6" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'3'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'6'!$A$1:$P$39</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'3'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'6'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'6'!$A$1:$P$39</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'1'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'2'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'3'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'6'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -684,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +762,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2170,13 +2179,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7384676" y="1299882"/>
-          <a:ext cx="2723030" cy="3787589"/>
+          <a:off x="7820585" y="1320053"/>
+          <a:ext cx="2712945" cy="3864909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2289,103 +2298,6 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワードは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>36</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>桁まで入力可能として文字は「*」で表示する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Enter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>キーの押下にてログインボタンの押下と同様の動作を行う。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>各入力枠に対して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SQL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>インジェクションを防止する内部機構を講じる。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2393,19 +2305,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>39780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>774887</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>114482</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPr id="23" name="図 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2424,8 +2336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="347383" y="1535206"/>
-          <a:ext cx="7250205" cy="4316688"/>
+          <a:off x="358588" y="1574986"/>
+          <a:ext cx="7229475" cy="4162426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2573,6 +2485,375 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="336177" y="1662707"/>
+          <a:ext cx="7261411" cy="4074705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7384676" y="1299882"/>
+          <a:ext cx="2723030" cy="3787589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>36</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>桁まで入力可能とする。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358587" y="1583396"/>
+          <a:ext cx="7239001" cy="4154016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7820585" y="1320053"/>
+          <a:ext cx="2712945" cy="3864909"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　実装にあたっての注意事項　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>36</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>桁まで入力可能とする。</a:t>
+          </a:r>
+        </a:p>
         <a:p>
           <a:pPr marL="228600" indent="-228600" algn="l">
             <a:buFont typeface="+mj-ea"/>
@@ -2677,19 +2958,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>128182</xdr:colOff>
+      <xdr:colOff>155200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>39780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>126908</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2708,8 +2989,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="341094" y="1535206"/>
-          <a:ext cx="7256494" cy="4329114"/>
+          <a:off x="368112" y="1574986"/>
+          <a:ext cx="7229476" cy="4162426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3013,7 +3294,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
@@ -3033,26 +3314,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="e">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3155,21 +3436,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="25" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>17</v>
@@ -3181,21 +3462,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="38" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="40" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -3205,21 +3486,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="39"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="40"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3229,21 +3510,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3253,21 +3534,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40" t="s">
+      <c r="F11" s="40"/>
+      <c r="G11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3277,21 +3558,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40" t="s">
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3301,21 +3582,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40" t="s">
+      <c r="F13" s="40"/>
+      <c r="G13" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3325,21 +3606,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40" t="s">
+      <c r="F14" s="40"/>
+      <c r="G14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3349,15 +3630,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>18</v>
@@ -3369,15 +3650,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3875,8 +4156,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3893,32 +4174,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="20" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="20" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -4645,7 +4926,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+      <selection activeCell="AI41" sqref="AI41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4662,32 +4943,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="24" t="s">
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="24" t="s">
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="25" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
@@ -5404,4 +5685,1542 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AA25" sqref="Z24:AA25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:P40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="2.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="10" width="10.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="15" width="10.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.25" style="1"/>
+    <col min="19" max="19" width="3.25" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="2.25" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="19">
+        <v>42907</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="22"/>
+      <c r="D7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PM演習_設計書_吉田.xlsx
+++ b/PM演習_設計書_吉田.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshida\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\和暉\Desktop\講義\PM実験３\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" tabRatio="732" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="732" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="画面１" sheetId="1" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -769,6 +769,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,9 +794,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -807,21 +822,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2261,37 +2261,43 @@
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>テキスト「リンクは下から」は、テキストを右から左にスライドさせる。</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>は</a:t>
+            <a:t>画像を表示、と表示されている場所は、画像を挿入する。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>36</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>桁まで入力可能とする。</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2448,37 +2454,24 @@
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>は</a:t>
+            <a:t>「あ～わ」の各文字には、各ページ内リンクをつける。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>36</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>桁まで入力可能とする。</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" algn="l">
+            <a:buFont typeface="+mj-ea"/>
+            <a:buAutoNum type="circleNumDbPlain"/>
+          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2492,19 +2485,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>127501</xdr:rowOff>
+      <xdr:rowOff>41462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>771651</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2523,8 +2516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="336177" y="1662707"/>
-          <a:ext cx="7261411" cy="4074705"/>
+          <a:off x="355787" y="1576668"/>
+          <a:ext cx="7229040" cy="4164667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2634,38 +2627,6 @@
             <a:buFont typeface="+mj-ea"/>
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>36</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>桁まで入力可能とする。</a:t>
-          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2822,12 +2783,20 @@
             <a:buAutoNum type="circleNumDbPlain"/>
           </a:pPr>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>発表パワーポイントを表示、と表示されている場所は、パワーポイントを</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -2835,121 +2804,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>は</a:t>
+            <a:t>枚ずつ表示する。</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>36</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>桁まで入力可能とする。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>パスワードは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>36</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>桁まで入力可能として文字は「*」で表示する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Enter</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>キーの押下にてログインボタンの押下と同様の動作を行う。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="228600" indent="-228600" algn="l">
-            <a:buFont typeface="+mj-ea"/>
-            <a:buAutoNum type="circleNumDbPlain"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>各入力枠に対して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SQL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>インジェクションを防止する内部機構を講じる。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2958,13 +2814,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>155200</xdr:colOff>
+      <xdr:colOff>143994</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>39780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>773206</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2989,7 +2845,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368112" y="1574986"/>
+          <a:off x="356906" y="1574986"/>
           <a:ext cx="7229476" cy="4162426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3314,26 +3170,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="e">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -3436,21 +3292,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="26" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>17</v>
@@ -3462,21 +3318,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -3486,21 +3342,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="39" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="39" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="40"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3510,21 +3366,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="39" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3534,21 +3390,21 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="39" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3558,21 +3414,21 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="39" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3582,21 +3438,21 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="39" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3606,21 +3462,21 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="39" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3630,15 +3486,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>18</v>
@@ -3650,15 +3506,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -4105,16 +3961,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E8:F8"/>
@@ -4131,13 +3984,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4156,8 +4012,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4174,25 +4030,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
@@ -4926,7 +4782,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AI41" sqref="AI41"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4943,25 +4799,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
@@ -5712,25 +5568,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="20" t="s">
         <v>2</v>
       </c>
@@ -6463,8 +6319,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6481,25 +6337,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
       <c r="G1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37"/>
       <c r="L1" s="24" t="s">
         <v>2</v>
       </c>
